--- a/my_code/excel files/distance.xlsx
+++ b/my_code/excel files/distance.xlsx
@@ -1007,7 +1007,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>56.4</v>
+        <v>56.6</v>
       </c>
     </row>
     <row r="116">
@@ -1347,7 +1347,7 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>5.6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="184">
@@ -1357,22 +1357,22 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>60.8</v>
+        <v>60.3</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>51.4</v>
+        <v>50.8</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>61.9</v>
+        <v>61.4</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>92.59999999999999</v>
+        <v>92</v>
       </c>
     </row>
     <row r="189">
@@ -1382,12 +1382,12 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>8.6</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>93.40000000000001</v>
+        <v>92.8</v>
       </c>
     </row>
     <row r="192">
@@ -1762,22 +1762,22 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>97.3</v>
+        <v>96.59999999999999</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>47.5</v>
+        <v>46.7</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>36</v>
+        <v>35.2</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>31.7</v>
+        <v>30.9</v>
       </c>
     </row>
     <row r="270">
@@ -1787,27 +1787,27 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>98</v>
+        <v>97.3</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>63.5</v>
+        <v>62.7</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>99.7</v>
+        <v>99</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>45.3</v>
+        <v>44.6</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>64.2</v>
+        <v>63.5</v>
       </c>
     </row>
     <row r="276">
@@ -1817,7 +1817,7 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>64.5</v>
+        <v>63.7</v>
       </c>
     </row>
     <row r="278">
@@ -2257,7 +2257,7 @@
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>28.3</v>
+        <v>33.6</v>
       </c>
     </row>
     <row r="366">
@@ -2552,17 +2552,17 @@
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>74.3</v>
+        <v>74.2</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>98</v>
+        <v>97.90000000000001</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>88.5</v>
+        <v>88.40000000000001</v>
       </c>
     </row>
     <row r="427">
@@ -2587,7 +2587,7 @@
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="432">
